--- a/data/trans_orig/Q5408-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Clase-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4343</v>
+        <v>4765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01589114001246909</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07264708062239776</v>
+        <v>0.07970908083186025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5354</v>
+        <v>5414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01061581796677312</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05982959111516284</v>
+        <v>0.06049284499033896</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>58834</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55441</v>
+        <v>55019</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>59784</v>
@@ -863,7 +863,7 @@
         <v>0.9841088599875309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9273529193776012</v>
+        <v>0.92029091916814</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>88543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84139</v>
+        <v>84079</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>89493</v>
@@ -897,7 +897,7 @@
         <v>0.9893841820332269</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9401704088848351</v>
+        <v>0.9395071550096604</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5209</v>
+        <v>6319</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01188263730392363</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05424750441971093</v>
+        <v>0.06580688966234702</v>
       </c>
     </row>
     <row r="13">
@@ -1271,19 +1271,19 @@
         <v>4336</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1659</v>
+        <v>1712</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8810</v>
+        <v>9965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06043034765004362</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02311540108099298</v>
+        <v>0.02385263867367544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1227848642628522</v>
+        <v>0.1388743736653914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5241</v>
+        <v>5186</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04267926274394805</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2158938440050607</v>
+        <v>0.2136164788849115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1313,19 +1313,19 @@
         <v>5372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2445</v>
+        <v>2545</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11311</v>
+        <v>11293</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05594304790682868</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02546464402918465</v>
+        <v>0.02649805098400108</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1177819663504535</v>
+        <v>0.11759557687004</v>
       </c>
     </row>
     <row r="14">
@@ -1342,19 +1342,19 @@
         <v>67418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62944</v>
+        <v>61789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70095</v>
+        <v>70042</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9395696523499564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8772151357371478</v>
+        <v>0.8611256263346084</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9768845989190069</v>
+        <v>0.9761473613263246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1363,7 +1363,7 @@
         <v>22098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17837</v>
+        <v>16824</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>24275</v>
@@ -1372,7 +1372,7 @@
         <v>0.9103148059029648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7348078882540632</v>
+        <v>0.6930705136934472</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1384,19 +1384,19 @@
         <v>89517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>83041</v>
+        <v>82866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>93162</v>
+        <v>93150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9321743147892477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8647370820901115</v>
+        <v>0.8629188985492459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9701295096753363</v>
+        <v>0.9700046624694536</v>
       </c>
     </row>
     <row r="15">
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4209</v>
+        <v>4198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003223737916188139</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01618288850859328</v>
+        <v>0.01614221778263698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4591</v>
+        <v>4226</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002424365503233344</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01327663565964646</v>
+        <v>0.01221922533836152</v>
       </c>
     </row>
     <row r="17">
@@ -1551,19 +1551,19 @@
         <v>10175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5545</v>
+        <v>5476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17036</v>
+        <v>16856</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03912349604351328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02132054214834415</v>
+        <v>0.02105399688936583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06550403393817145</v>
+        <v>0.06481256555309625</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7220</v>
+        <v>6684</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02581453697037855</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08419335275782039</v>
+        <v>0.07794940899232462</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1593,19 +1593,19 @@
         <v>12389</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7310</v>
+        <v>7201</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20201</v>
+        <v>21037</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03582334727062916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02113760031481955</v>
+        <v>0.02082156252503908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05841294556862544</v>
+        <v>0.06083084879883711</v>
       </c>
     </row>
     <row r="18">
@@ -1622,19 +1622,19 @@
         <v>249059</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>241179</v>
+        <v>241845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>253655</v>
+        <v>254437</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9576527660402986</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9273552573569319</v>
+        <v>0.9299157181769638</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9753270668221176</v>
+        <v>0.9783333740701129</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>86</v>
@@ -1643,7 +1643,7 @@
         <v>83538</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78532</v>
+        <v>79068</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>85752</v>
@@ -1652,7 +1652,7 @@
         <v>0.9741854630296215</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9158066472421807</v>
+        <v>0.9220505910076754</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1664,19 +1664,19 @@
         <v>332597</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>324448</v>
+        <v>323945</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>337700</v>
+        <v>338382</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9617522872261375</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9381871847290248</v>
+        <v>0.9367348230635604</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.976506941480226</v>
+        <v>0.9784814193017318</v>
       </c>
     </row>
     <row r="19">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4231</v>
+        <v>4611</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0149760885067738</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07629016737330291</v>
+        <v>0.08314163113503428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>2.671621453074304e-06</v>
+        <v>2.971295502662361e-06</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4349</v>
+        <v>4250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005475451786337</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02866317621008799</v>
+        <v>0.02801591762598083</v>
       </c>
     </row>
     <row r="21">
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7060</v>
+        <v>6032</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03569229264333047</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1272863508117092</v>
+        <v>0.1087447399217265</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1860,19 +1860,19 @@
         <v>10273</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5048</v>
+        <v>5322</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17745</v>
+        <v>18043</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1067357786542429</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05244535066195093</v>
+        <v>0.05529205948556213</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1843629909749344</v>
+        <v>0.1874569503700569</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1881,19 +1881,19 @@
         <v>12253</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7110</v>
+        <v>6276</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21615</v>
+        <v>20240</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08076309619282351</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04686122640677476</v>
+        <v>0.04136842286015958</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1424727935640392</v>
+        <v>0.1334081000147941</v>
       </c>
     </row>
     <row r="22">
@@ -1910,19 +1910,19 @@
         <v>52655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47350</v>
+        <v>48451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54635</v>
+        <v>54626</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9493316188498957</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8536988991077145</v>
+        <v>0.8735397332110589</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.985034736687643</v>
+        <v>0.9848804435845006</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -1931,19 +1931,19 @@
         <v>85977</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78505</v>
+        <v>78207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91202</v>
+        <v>90928</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8932636446734223</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8156366767419472</v>
+        <v>0.812542535041337</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9475535934803937</v>
+        <v>0.9447073717734014</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>138</v>
@@ -1952,19 +1952,19 @@
         <v>138631</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128755</v>
+        <v>130517</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>143970</v>
+        <v>145155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9137614520208395</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8486649756691428</v>
+        <v>0.8602763709555338</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.948952767589107</v>
+        <v>0.956759900625726</v>
       </c>
     </row>
     <row r="23">
@@ -2069,19 +2069,19 @@
         <v>4542</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1198</v>
+        <v>1312</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11293</v>
+        <v>11455</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01068519038258754</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002818307085162762</v>
+        <v>0.003086010292558184</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02656800689410996</v>
+        <v>0.02694818811962328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2090,19 +2090,19 @@
         <v>4542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1197</v>
+        <v>1122</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11317</v>
+        <v>10382</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01059434356912187</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002792945086249885</v>
+        <v>0.002616740081566268</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02639755519482963</v>
+        <v>0.02421629597828678</v>
       </c>
     </row>
     <row r="25">
@@ -2132,19 +2132,19 @@
         <v>18202</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10226</v>
+        <v>11164</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28020</v>
+        <v>28485</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04282034108596751</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0240563102727992</v>
+        <v>0.0262630498810264</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06591958639516504</v>
+        <v>0.06701360726600243</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2153,19 +2153,19 @@
         <v>18202</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10480</v>
+        <v>11178</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27988</v>
+        <v>29195</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0424562772368561</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02444486969400966</v>
+        <v>0.02607306133998359</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06528454824061281</v>
+        <v>0.06809921878031477</v>
       </c>
     </row>
     <row r="26">
@@ -2195,19 +2195,19 @@
         <v>402326</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>391993</v>
+        <v>391679</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>411187</v>
+        <v>410784</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9464944685314449</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9221856951000414</v>
+        <v>0.921445518649464</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9673385284312981</v>
+        <v>0.9663921831349257</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>396</v>
@@ -2216,19 +2216,19 @@
         <v>405971</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>394968</v>
+        <v>395289</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>414199</v>
+        <v>414310</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.946949379194022</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.921282397579105</v>
+        <v>0.9220329723139054</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9661414026537544</v>
+        <v>0.9664000011712151</v>
       </c>
     </row>
     <row r="27">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5043</v>
+        <v>5892</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003327796711448917</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01005427503686705</v>
+        <v>0.01174766199260835</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2341,19 +2341,19 @@
         <v>5683</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2267</v>
+        <v>2027</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12833</v>
+        <v>12102</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008396488275372838</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003348683294825694</v>
+        <v>0.002994304515040671</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01896009007567728</v>
+        <v>0.01787959421071805</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -2362,19 +2362,19 @@
         <v>7352</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3061</v>
+        <v>3408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15285</v>
+        <v>16341</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006239137495933795</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002597898526141115</v>
+        <v>0.00289182234451154</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01297143611801616</v>
+        <v>0.01386723744843066</v>
       </c>
     </row>
     <row r="29">
@@ -2391,19 +2391,19 @@
         <v>17441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11169</v>
+        <v>10913</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26890</v>
+        <v>26490</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03477371018799492</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02226946712091368</v>
+        <v>0.02175850670337205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05361314171642472</v>
+        <v>0.05281575402679133</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2412,19 +2412,19 @@
         <v>31725</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21358</v>
+        <v>22058</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44840</v>
+        <v>44987</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04687161659798267</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03155587194123231</v>
+        <v>0.03259005343392191</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06624823102259059</v>
+        <v>0.06646577657628658</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2433,19 +2433,19 @@
         <v>49165</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>36591</v>
+        <v>36042</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63985</v>
+        <v>63625</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.041722471597934</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03105191833143378</v>
+        <v>0.03058603398152978</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05429819464340149</v>
+        <v>0.05399278483271121</v>
       </c>
     </row>
     <row r="30">
@@ -2462,19 +2462,19 @@
         <v>482441</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>473046</v>
+        <v>473412</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>489118</v>
+        <v>489318</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9618984931005562</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9431662372024739</v>
+        <v>0.9438957638015828</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.975210638622468</v>
+        <v>0.9756101455074822</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>627</v>
@@ -2483,19 +2483,19 @@
         <v>639434</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>625539</v>
+        <v>625202</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>650815</v>
+        <v>649307</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9447318951266445</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9242026352048192</v>
+        <v>0.9237041200183478</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9615463125564009</v>
+        <v>0.9593184737954652</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1128</v>
@@ -2504,19 +2504,19 @@
         <v>1121875</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1106639</v>
+        <v>1106621</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1135508</v>
+        <v>1136533</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9520383909061322</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9391081813901123</v>
+        <v>0.9390931619819038</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9636070525272412</v>
+        <v>0.9644769113901692</v>
       </c>
     </row>
     <row r="31">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5551</v>
+        <v>5355</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02378456403225312</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1263865410957944</v>
+        <v>0.1219258990541173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7613</v>
+        <v>7494</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03098152699325197</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1100018579113087</v>
+        <v>0.1082896679090921</v>
       </c>
     </row>
     <row r="6">
@@ -2968,7 +2968,7 @@
         <v>42873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38367</v>
+        <v>38563</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>43918</v>
@@ -2977,7 +2977,7 @@
         <v>0.9762154359677468</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8736134589042058</v>
+        <v>0.8780741009458828</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -2989,7 +2989,7 @@
         <v>24189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19470</v>
+        <v>19759</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -2998,7 +2998,7 @@
         <v>0.9565200299502267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7698961428320276</v>
+        <v>0.781308622751258</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>67063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61594</v>
+        <v>61713</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>69207</v>
@@ -3019,7 +3019,7 @@
         <v>0.969018473006748</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8899981420886904</v>
+        <v>0.8917103320909079</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5634</v>
+        <v>5812</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.298069881508649</v>
+        <v>0.3074551670108447</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6377</v>
+        <v>6325</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01399566477830614</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08018119820021426</v>
+        <v>0.07952263411573232</v>
       </c>
     </row>
     <row r="9">
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7181</v>
+        <v>7220</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03733191266226404</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1184468724486513</v>
+        <v>0.1190886557308637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5352</v>
+        <v>5389</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05796467111718722</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2831433272509084</v>
+        <v>0.2850968805133176</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -3219,19 +3219,19 @@
         <v>3359</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9345</v>
+        <v>9076</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04223553643836555</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01343964607663248</v>
+        <v>0.01322977393657495</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1174993328094848</v>
+        <v>0.1141232102691394</v>
       </c>
     </row>
     <row r="10">
@@ -3248,7 +3248,7 @@
         <v>58367</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53449</v>
+        <v>53410</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>60630</v>
@@ -3257,7 +3257,7 @@
         <v>0.9626680873377359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8815531275513478</v>
+        <v>0.8809113442691393</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -3269,7 +3269,7 @@
         <v>16693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11990</v>
+        <v>12078</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18902</v>
@@ -3278,7 +3278,7 @@
         <v>0.8831463961318494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6343359911177578</v>
+        <v>0.6389828669818506</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3290,19 +3290,19 @@
         <v>75059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69257</v>
+        <v>69920</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78397</v>
+        <v>78420</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9437687987833283</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8708143885954482</v>
+        <v>0.8791548996814099</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9857433265146902</v>
+        <v>0.9860356279859264</v>
       </c>
     </row>
     <row r="11">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008361460976098214</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04246660188970451</v>
+        <v>0.04243359194911882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5118</v>
+        <v>5018</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005725906679293886</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02953682905011073</v>
+        <v>0.02896324564555674</v>
       </c>
     </row>
     <row r="13">
@@ -3457,19 +3457,19 @@
         <v>3033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8979</v>
+        <v>8181</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02556185280602477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007886430392404121</v>
+        <v>0.007985467799791304</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07567757728765825</v>
+        <v>0.06895012857707027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3491,19 +3491,19 @@
         <v>3033</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8276</v>
+        <v>8111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01750469016545527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00549619425923809</v>
+        <v>0.00549997605663085</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.047766416066846</v>
+        <v>0.04681173407747304</v>
       </c>
     </row>
     <row r="14">
@@ -3520,19 +3520,19 @@
         <v>114628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108437</v>
+        <v>108554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117622</v>
+        <v>117619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.966076686217877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9138978594115557</v>
+        <v>0.9148887224041605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9913067709947592</v>
+        <v>0.9912866729041238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -3554,19 +3554,19 @@
         <v>169243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>164109</v>
+        <v>163892</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>172273</v>
+        <v>172251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9767694031552508</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9471400753703806</v>
+        <v>0.9458880281013361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9942549186109209</v>
+        <v>0.9941278161093284</v>
       </c>
     </row>
     <row r="15">
@@ -3658,19 +3658,19 @@
         <v>7448</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3069</v>
+        <v>3115</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16686</v>
+        <v>16785</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03213562214035165</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01324173789047461</v>
+        <v>0.01344058249648588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07200045704774108</v>
+        <v>0.07242488768748076</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3692,19 +3692,19 @@
         <v>7448</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3062</v>
+        <v>3125</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16203</v>
+        <v>17124</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02551848970437084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0104923557162916</v>
+        <v>0.01070817509075478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05551978519895009</v>
+        <v>0.05867421044959894</v>
       </c>
     </row>
     <row r="17">
@@ -3721,19 +3721,19 @@
         <v>14697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8251</v>
+        <v>8291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24325</v>
+        <v>24537</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06341492643179404</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03560398295044789</v>
+        <v>0.03577378595867832</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1049601350186065</v>
+        <v>0.1058768149813528</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3742,19 +3742,19 @@
         <v>3151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8464</v>
+        <v>8533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05244153583619855</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0158088210493009</v>
+        <v>0.01538154674581112</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1408494735470828</v>
+        <v>0.1419840393706328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -3763,19 +3763,19 @@
         <v>17848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10340</v>
+        <v>10548</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28880</v>
+        <v>27030</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06115536604346023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03542985136994733</v>
+        <v>0.03614127956442252</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09895493094391937</v>
+        <v>0.09261744170797855</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>209609</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197305</v>
+        <v>198310</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>217998</v>
+        <v>217988</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9044494514278543</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.851360964083146</v>
+        <v>0.8556966828160184</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9406473965780439</v>
+        <v>0.9406055589243455</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -3813,19 +3813,19 @@
         <v>56944</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51631</v>
+        <v>51562</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59145</v>
+        <v>59171</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9475584641638014</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8591505264529172</v>
+        <v>0.8580159606293668</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9841911789506992</v>
+        <v>0.9846184532541888</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>250</v>
@@ -3834,19 +3834,19 @@
         <v>266552</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>253365</v>
+        <v>256623</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>276049</v>
+        <v>276058</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.913326144252169</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.868140266791107</v>
+        <v>0.8793022259665513</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9458640681737946</v>
+        <v>0.9458947923214786</v>
       </c>
     </row>
     <row r="19">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7027</v>
+        <v>6354</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0197667911048966</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0684242824143983</v>
+        <v>0.06187103581610835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -3959,19 +3959,19 @@
         <v>7723</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3168</v>
+        <v>3189</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15359</v>
+        <v>15502</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0409927994020772</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01681647628440328</v>
+        <v>0.01692446469780843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08152288781440724</v>
+        <v>0.08228066793474267</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -3980,19 +3980,19 @@
         <v>9753</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5180</v>
+        <v>4291</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18364</v>
+        <v>16934</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03350447935389133</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01779362628375483</v>
+        <v>0.01474175998146823</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06308593473373304</v>
+        <v>0.05817347708146849</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>5185</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2058</v>
+        <v>2007</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11591</v>
+        <v>10626</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05048943788447796</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02003954128638294</v>
+        <v>0.01954272690488216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1128707181856162</v>
+        <v>0.1034726170460506</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -4030,19 +4030,19 @@
         <v>19998</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12751</v>
+        <v>12176</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30753</v>
+        <v>29731</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1061478264140319</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06768168002201434</v>
+        <v>0.06463087714505457</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1632317244469716</v>
+        <v>0.1578068807986944</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -4051,19 +4051,19 @@
         <v>25183</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16009</v>
+        <v>17077</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35374</v>
+        <v>36914</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08651211248985811</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05499491513990635</v>
+        <v>0.05866583683982614</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1215206366127932</v>
+        <v>0.1268105083860574</v>
       </c>
     </row>
     <row r="22">
@@ -4080,19 +4080,19 @@
         <v>95481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88359</v>
+        <v>89010</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99585</v>
+        <v>99639</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9297437710106254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8603946293874075</v>
+        <v>0.8667371662525616</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9697065404870632</v>
+        <v>0.9702332808934592</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>152</v>
@@ -4101,19 +4101,19 @@
         <v>160679</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149765</v>
+        <v>149096</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169845</v>
+        <v>169495</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8528593741838909</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7949319885061122</v>
+        <v>0.7913809590228846</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9015151091641721</v>
+        <v>0.8996532323797765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>241</v>
@@ -4122,19 +4122,19 @@
         <v>256160</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>244454</v>
+        <v>242641</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>266494</v>
+        <v>266555</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8799834081562505</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8397725094048953</v>
+        <v>0.8335435045708959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9154865068373645</v>
+        <v>0.9156948940851622</v>
       </c>
     </row>
     <row r="23">
@@ -4239,19 +4239,19 @@
         <v>10518</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5268</v>
+        <v>5094</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20704</v>
+        <v>18970</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0266490279901231</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01334600615048138</v>
+        <v>0.01290474280359488</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05245389835852828</v>
+        <v>0.04806087351956378</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -4260,19 +4260,19 @@
         <v>10518</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5300</v>
+        <v>5190</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20035</v>
+        <v>19792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02651549636614332</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01335962078490415</v>
+        <v>0.01308403745080331</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05050420810134638</v>
+        <v>0.049892381973303</v>
       </c>
     </row>
     <row r="25">
@@ -4302,19 +4302,19 @@
         <v>20766</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13056</v>
+        <v>12678</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32874</v>
+        <v>30898</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05261256240167281</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03307744179210707</v>
+        <v>0.0321213019514684</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08328805238373164</v>
+        <v>0.07828077600193896</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -4323,19 +4323,19 @@
         <v>20766</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13134</v>
+        <v>13148</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31479</v>
+        <v>31938</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05234893399084158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03310909603297561</v>
+        <v>0.03314511346820125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07935458705011898</v>
+        <v>0.08051140153853484</v>
       </c>
     </row>
     <row r="26">
@@ -4365,19 +4365,19 @@
         <v>363419</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>350963</v>
+        <v>350730</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>373596</v>
+        <v>373446</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9207384096082041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8891792594504468</v>
+        <v>0.8885892136030082</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.946520945342173</v>
+        <v>0.9461407694770626</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>342</v>
@@ -4386,19 +4386,19 @@
         <v>365407</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>352852</v>
+        <v>353598</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>375077</v>
+        <v>375084</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9211355696430151</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8894866297793808</v>
+        <v>0.8913662475315185</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9455129762454043</v>
+        <v>0.9455286182442703</v>
       </c>
     </row>
     <row r="27">
@@ -4490,19 +4490,19 @@
         <v>10470</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5231</v>
+        <v>5234</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19502</v>
+        <v>19239</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01870784846397888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0093478597519117</v>
+        <v>0.00935240345740568</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03484681146896472</v>
+        <v>0.03437763915940308</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -4511,19 +4511,19 @@
         <v>19355</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12504</v>
+        <v>11819</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31529</v>
+        <v>30509</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02608423840339941</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01685179397972158</v>
+        <v>0.01592866368686017</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04249118928424398</v>
+        <v>0.04111747361575453</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -4532,19 +4532,19 @@
         <v>29824</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19785</v>
+        <v>19595</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44242</v>
+        <v>43356</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02291278192751358</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01519999444488122</v>
+        <v>0.0150542428879333</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03398910460499329</v>
+        <v>0.03330888862579771</v>
       </c>
     </row>
     <row r="29">
@@ -4561,19 +4561,19 @@
         <v>26223</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17758</v>
+        <v>17218</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37241</v>
+        <v>38520</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04685648781833272</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03173138924183686</v>
+        <v>0.03076661652544018</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06654568409916378</v>
+        <v>0.06883080827416654</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -4582,19 +4582,19 @@
         <v>46111</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34032</v>
+        <v>32699</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>60150</v>
+        <v>59748</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06214427833655468</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04586485106956904</v>
+        <v>0.04406806438670653</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08106368966027658</v>
+        <v>0.08052209447177353</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>66</v>
@@ -4603,19 +4603,19 @@
         <v>72334</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>56928</v>
+        <v>57160</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>90630</v>
+        <v>91243</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05557133918350201</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04373591108880051</v>
+        <v>0.04391413272866294</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06962779585203109</v>
+        <v>0.07009850900386494</v>
       </c>
     </row>
     <row r="30">
@@ -4632,19 +4632,19 @@
         <v>522945</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>509137</v>
+        <v>509255</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>533009</v>
+        <v>532930</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9344356637176884</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.909763676361668</v>
+        <v>0.909973999572</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.952418452264843</v>
+        <v>0.9522775903799804</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>634</v>
@@ -4653,19 +4653,19 @@
         <v>676539</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>660541</v>
+        <v>659895</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>691221</v>
+        <v>692046</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9117714832600459</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8902111026311971</v>
+        <v>0.8893406188795188</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9315581397566759</v>
+        <v>0.9326698367895221</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1105</v>
@@ -4674,19 +4674,19 @@
         <v>1199484</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1177094</v>
+        <v>1177638</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1217983</v>
+        <v>1217438</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9215158788889845</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9043147177815157</v>
+        <v>0.9047328411466725</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9357278611450357</v>
+        <v>0.9353095712063212</v>
       </c>
     </row>
     <row r="31">
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4377</v>
+        <v>4235</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01264942295148332</v>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06376079093474005</v>
+        <v>0.06169834030959055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8126</v>
+        <v>8751</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02126426831031568</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07700167501632713</v>
+        <v>0.08291832374221039</v>
       </c>
     </row>
     <row r="6">
@@ -5138,7 +5138,7 @@
         <v>67779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64270</v>
+        <v>64412</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>68647</v>
@@ -5147,7 +5147,7 @@
         <v>0.9873505770485167</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9362392090652605</v>
+        <v>0.9383016596904095</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>35512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29922</v>
+        <v>30412</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>36888</v>
@@ -5168,7 +5168,7 @@
         <v>0.9627040069345654</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8111690604689827</v>
+        <v>0.8244444451238445</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -5180,7 +5180,7 @@
         <v>103291</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>97409</v>
+        <v>96784</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>105535</v>
@@ -5189,7 +5189,7 @@
         <v>0.9787357316896843</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9229983249836728</v>
+        <v>0.9170816762577896</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -5331,19 +5331,19 @@
         <v>3832</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>997</v>
+        <v>1032</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8790</v>
+        <v>8664</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07183152658448363</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01868208885674171</v>
+        <v>0.01934594951115493</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1647835895429871</v>
+        <v>0.1624081893639677</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6499</v>
+        <v>5970</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07658802445653275</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3695208916487439</v>
+        <v>0.3394487575003525</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -5373,19 +5373,19 @@
         <v>5179</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1909</v>
+        <v>1938</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10999</v>
+        <v>11577</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07301093710210967</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0269173203736658</v>
+        <v>0.02732216914292247</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1550708411086432</v>
+        <v>0.163217464338329</v>
       </c>
     </row>
     <row r="10">
@@ -5402,19 +5402,19 @@
         <v>49512</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44554</v>
+        <v>44680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52347</v>
+        <v>52312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9281684734155163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8352164104570129</v>
+        <v>0.8375918106360322</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9813179111432583</v>
+        <v>0.980654050488845</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5423,7 +5423,7 @@
         <v>16241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11089</v>
+        <v>11618</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5432,7 +5432,7 @@
         <v>0.9234119755434672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6304791083512563</v>
+        <v>0.660551242499649</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5444,19 +5444,19 @@
         <v>65753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59933</v>
+        <v>59355</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69023</v>
+        <v>68994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9269890628978903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8449291588913569</v>
+        <v>0.8367825356616709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9730826796263342</v>
+        <v>0.9726778308570775</v>
       </c>
     </row>
     <row r="11">
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4527</v>
+        <v>4662</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007419590169216484</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03764191152886145</v>
+        <v>0.03876771360308678</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4491</v>
+        <v>5395</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005360054184697013</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02697575131453833</v>
+        <v>0.03240692223119501</v>
       </c>
     </row>
     <row r="13">
@@ -5611,19 +5611,19 @@
         <v>2901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8221</v>
+        <v>8264</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02412361002894129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00649774692241205</v>
+        <v>0.0066118775418588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0683584938591662</v>
+        <v>0.06871403484237737</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5338</v>
+        <v>5559</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02569218546758745</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1155133001809109</v>
+        <v>0.1202940425301047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -5653,19 +5653,19 @@
         <v>4088</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1177</v>
+        <v>1192</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9653</v>
+        <v>9703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02455901649838869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007067518609733487</v>
+        <v>0.00716040702214251</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05798454703239013</v>
+        <v>0.05828396168135343</v>
       </c>
     </row>
     <row r="14">
@@ -5682,19 +5682,19 @@
         <v>116468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110250</v>
+        <v>110735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119038</v>
+        <v>119049</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9684567998018422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9167568624818655</v>
+        <v>0.9207885209077943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898276700186562</v>
+        <v>0.9899192272102627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -5703,7 +5703,7 @@
         <v>45022</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40871</v>
+        <v>40650</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>46209</v>
@@ -5712,7 +5712,7 @@
         <v>0.9743078145324126</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8844866998190876</v>
+        <v>0.8797059574698952</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5724,19 +5724,19 @@
         <v>161489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155451</v>
+        <v>155493</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164761</v>
+        <v>164810</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9700809293169143</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9338095033426417</v>
+        <v>0.9340600870123911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9897339718510229</v>
+        <v>0.9900293663644493</v>
       </c>
     </row>
     <row r="15">
@@ -5828,19 +5828,19 @@
         <v>2483</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7536</v>
+        <v>6762</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01218082626941885</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003942368124051642</v>
+        <v>0.003978055875307424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03696649962525143</v>
+        <v>0.03317209857519068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5862,19 +5862,19 @@
         <v>2483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6766</v>
+        <v>6646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008197811957167856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002649907142597041</v>
+        <v>0.002634220563831069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02233576797091358</v>
+        <v>0.02194059200733151</v>
       </c>
     </row>
     <row r="17">
@@ -5891,19 +5891,19 @@
         <v>9202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4926</v>
+        <v>4351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16003</v>
+        <v>16203</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04514009162211477</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02416637877536241</v>
+        <v>0.0213436057432814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0784991311155695</v>
+        <v>0.07948477971983757</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -5912,19 +5912,19 @@
         <v>4961</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1337</v>
+        <v>1290</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12391</v>
+        <v>11191</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05008812048576365</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01349786114604084</v>
+        <v>0.01302770643176472</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1251009824629291</v>
+        <v>0.1129900722089215</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -5933,19 +5933,19 @@
         <v>14163</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8090</v>
+        <v>8326</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22880</v>
+        <v>22778</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04675804998925966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02670785524909097</v>
+        <v>0.02748873781329227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07553438394401016</v>
+        <v>0.07519892977581698</v>
       </c>
     </row>
     <row r="18">
@@ -5962,19 +5962,19 @@
         <v>192171</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>184572</v>
+        <v>184693</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197022</v>
+        <v>197279</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9426790821084664</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9054043595255706</v>
+        <v>0.9059968791659003</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9664753050868744</v>
+        <v>0.9677359330453333</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -5983,19 +5983,19 @@
         <v>94085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86655</v>
+        <v>87855</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97709</v>
+        <v>97756</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9499118795142364</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8748990175370707</v>
+        <v>0.8870099277910781</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9865021388539591</v>
+        <v>0.9869722935682352</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>284</v>
@@ -6004,19 +6004,19 @@
         <v>286256</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>277078</v>
+        <v>277148</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>293186</v>
+        <v>292756</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9450441380535725</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9147450416259088</v>
+        <v>0.9149763064519919</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9679239146635714</v>
+        <v>0.9665035587606048</v>
       </c>
     </row>
     <row r="19">
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8420</v>
+        <v>6715</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01446898278380589</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05798010014953667</v>
+        <v>0.04623722693561944</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7739</v>
+        <v>6785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008442735325471316</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04850817479937208</v>
+        <v>0.04252844347370387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6150,19 +6150,19 @@
         <v>3448</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9466</v>
+        <v>9791</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01131419046773913</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002635377694996107</v>
+        <v>0.002646271712997059</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03106039857674916</v>
+        <v>0.0321273223087213</v>
       </c>
     </row>
     <row r="21">
@@ -6179,19 +6179,19 @@
         <v>6720</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3246</v>
+        <v>3319</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12314</v>
+        <v>12880</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04627731629405432</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02234923672819489</v>
+        <v>0.02285281658729616</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08479637600185135</v>
+        <v>0.08869475469162627</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -6200,19 +6200,19 @@
         <v>9034</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3873</v>
+        <v>3783</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16875</v>
+        <v>16468</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05662479773219537</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02427405371827805</v>
+        <v>0.02371351167769534</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1057655122193375</v>
+        <v>0.1032149179894221</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -6221,19 +6221,19 @@
         <v>15755</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9244</v>
+        <v>8615</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25377</v>
+        <v>25509</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05169431172236891</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03033214343219884</v>
+        <v>0.02826570578810492</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08326557752435072</v>
+        <v>0.08369783323836183</v>
       </c>
     </row>
     <row r="22">
@@ -6250,19 +6250,19 @@
         <v>136399</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129935</v>
+        <v>129653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140984</v>
+        <v>140335</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9392537009221398</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8947431667352237</v>
+        <v>0.8927952674331359</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.97082689949131</v>
+        <v>0.9663572907225371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -6271,19 +6271,19 @@
         <v>149168</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>140230</v>
+        <v>141393</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>154408</v>
+        <v>155597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9349324669423333</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8789072509374217</v>
+        <v>0.8861957754614104</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9677720884782917</v>
+        <v>0.9752260712244835</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>280</v>
@@ -6292,19 +6292,19 @@
         <v>285568</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>274508</v>
+        <v>275016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>292338</v>
+        <v>293503</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.936991497809892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9007011220510176</v>
+        <v>0.9023703530568827</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.959206507109116</v>
+        <v>0.9630269156633622</v>
       </c>
     </row>
     <row r="23">
@@ -6405,19 +6405,19 @@
         <v>12036</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5127</v>
+        <v>5093</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21360</v>
+        <v>21573</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02913718134154102</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01241117702826335</v>
+        <v>0.01232926758678485</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05170908661988322</v>
+        <v>0.05222316419938063</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -6426,19 +6426,19 @@
         <v>12036</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5127</v>
+        <v>5093</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21360</v>
+        <v>21573</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02913718134154102</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01241117702826335</v>
+        <v>0.01232926758678485</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05170908661988322</v>
+        <v>0.05222316419938063</v>
       </c>
     </row>
     <row r="25">
@@ -6464,19 +6464,19 @@
         <v>17043</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9507</v>
+        <v>9391</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26481</v>
+        <v>27611</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04125793427242939</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02301471744620509</v>
+        <v>0.02273397400737454</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06410593102392777</v>
+        <v>0.06684032899271547</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -6485,19 +6485,19 @@
         <v>17043</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9507</v>
+        <v>9391</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26481</v>
+        <v>27611</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04125793427242939</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02301471744620509</v>
+        <v>0.02273397400737454</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06410593102392777</v>
+        <v>0.06684032899271547</v>
       </c>
     </row>
     <row r="26">
@@ -6523,19 +6523,19 @@
         <v>384004</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>371252</v>
+        <v>370629</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>394532</v>
+        <v>394285</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9296048843860296</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.898734116300145</v>
+        <v>0.8972260253104777</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9550901646866438</v>
+        <v>0.9544933968847503</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>324</v>
@@ -6544,19 +6544,19 @@
         <v>384004</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>371252</v>
+        <v>370629</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>394532</v>
+        <v>394285</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9296048843860296</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.898734116300145</v>
+        <v>0.8972260253104777</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9550901646866438</v>
+        <v>0.9544933968847503</v>
       </c>
     </row>
     <row r="27">
@@ -6636,19 +6636,19 @@
         <v>5477</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2113</v>
+        <v>2092</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11374</v>
+        <v>11823</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009261549240334146</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003573182694771393</v>
+        <v>0.003537932215953397</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01923483549367026</v>
+        <v>0.01999351645352997</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -6657,19 +6657,19 @@
         <v>13383</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6553</v>
+        <v>6521</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25074</v>
+        <v>24478</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01732745922301976</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008484215165342143</v>
+        <v>0.008442908334740004</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03246353093362781</v>
+        <v>0.03169283579210645</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -6678,19 +6678,19 @@
         <v>18860</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10668</v>
+        <v>11113</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30839</v>
+        <v>30202</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01382989633912491</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007823175621491962</v>
+        <v>0.008149265060194392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02261424438378355</v>
+        <v>0.02214702286289508</v>
       </c>
     </row>
     <row r="29">
@@ -6707,19 +6707,19 @@
         <v>23524</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15994</v>
+        <v>15896</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34032</v>
+        <v>34177</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03978118151313439</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02704814602470635</v>
+        <v>0.02688103692218831</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0575515790825916</v>
+        <v>0.05779786445730018</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -6728,19 +6728,19 @@
         <v>34948</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22976</v>
+        <v>24026</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49352</v>
+        <v>49280</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04524872756878191</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02974732564025468</v>
+        <v>0.03110733380116213</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06389692368410406</v>
+        <v>0.06380463684694862</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>55</v>
@@ -6749,19 +6749,19 @@
         <v>58472</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>44454</v>
+        <v>44202</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>74827</v>
+        <v>75350</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04287787465928151</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03259849020390238</v>
+        <v>0.03241364803946104</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05487110665512363</v>
+        <v>0.0552543493151466</v>
       </c>
     </row>
     <row r="30">
@@ -6778,19 +6778,19 @@
         <v>562328</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>551120</v>
+        <v>551194</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>571126</v>
+        <v>571412</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9509572692465315</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9320036797263731</v>
+        <v>0.9321285243676153</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9658362598610838</v>
+        <v>0.9663193441496558</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>612</v>
@@ -6799,19 +6799,19 @@
         <v>724032</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>707484</v>
+        <v>707969</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>738741</v>
+        <v>738078</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9374238132081983</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9159980204425739</v>
+        <v>0.9166264267095736</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9564668743398472</v>
+        <v>0.9556089140377431</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1206</v>
@@ -6820,19 +6820,19 @@
         <v>1286360</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1266815</v>
+        <v>1266467</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1302626</v>
+        <v>1302964</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9432922290015936</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9289599626687087</v>
+        <v>0.9287043557196442</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9552198043400195</v>
+        <v>0.9554680799426548</v>
       </c>
     </row>
     <row r="31">
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2691</v>
+        <v>3260</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006936988954823209</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02235120598499941</v>
+        <v>0.02707743032539381</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3113</v>
+        <v>2920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008252821608618205</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04175004857893502</v>
+        <v>0.03915754052773489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -7255,19 +7255,19 @@
         <v>1451</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4398</v>
+        <v>4574</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007440205717106599</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001608260097790422</v>
+        <v>0.001616987526140915</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02255940298824176</v>
+        <v>0.02346194736776726</v>
       </c>
     </row>
     <row r="6">
@@ -7284,7 +7284,7 @@
         <v>119566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117710</v>
+        <v>117141</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>120401</v>
@@ -7293,7 +7293,7 @@
         <v>0.9930630110451768</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9776487940150015</v>
+        <v>0.9729225696746062</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -7305,7 +7305,7 @@
         <v>73944</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71446</v>
+        <v>71639</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>74559</v>
@@ -7314,7 +7314,7 @@
         <v>0.991747178391382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9582499514210649</v>
+        <v>0.9608424594722653</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -7326,19 +7326,19 @@
         <v>193509</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>190562</v>
+        <v>190386</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>194646</v>
+        <v>194645</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9925597942828935</v>
+        <v>0.9925597942828933</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.97744059701176</v>
+        <v>0.9765380526322327</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9983917399022098</v>
+        <v>0.9983830124738592</v>
       </c>
     </row>
     <row r="7">
@@ -7443,19 +7443,19 @@
         <v>1636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4738</v>
+        <v>4548</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02953808262658445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007232889905219047</v>
+        <v>0.00717301602668601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08554817244249024</v>
+        <v>0.08211878492622461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -7464,19 +7464,19 @@
         <v>1636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4626</v>
+        <v>4949</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.01021836659065923</v>
+        <v>0.01021836659065924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002473584513940476</v>
+        <v>0.002485154282849629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02889343725016185</v>
+        <v>0.03091189815549105</v>
       </c>
     </row>
     <row r="9">
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3343</v>
+        <v>3197</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005707528869803368</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03192522197005269</v>
+        <v>0.03053394305393502</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2471</v>
+        <v>2230</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007796405364329896</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04462077992864005</v>
+        <v>0.04025987302276011</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3716</v>
+        <v>3475</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006430152137316091</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02321295680391822</v>
+        <v>0.02170461801520737</v>
       </c>
     </row>
     <row r="10">
@@ -7564,16 +7564,16 @@
         <v>104117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101372</v>
+        <v>101518</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>104715</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9942924711301968</v>
+        <v>0.9942924711301965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.968074778029947</v>
+        <v>0.9694660569460636</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -7585,19 +7585,19 @@
         <v>53317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50043</v>
+        <v>50402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54808</v>
+        <v>54817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9626655120090857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9035480460670894</v>
+        <v>0.9100374223041714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9895772741661165</v>
+        <v>0.9897490921649074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>240</v>
@@ -7606,19 +7606,19 @@
         <v>157435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153821</v>
+        <v>153847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159179</v>
+        <v>159103</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9833514812720247</v>
+        <v>0.9833514812720249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9607800236066677</v>
+        <v>0.9609430395919792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9942491031865116</v>
+        <v>0.9937706686485884</v>
       </c>
     </row>
     <row r="11">
@@ -7710,19 +7710,19 @@
         <v>1469</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4239</v>
+        <v>4658</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0130622897053871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003073497182204957</v>
+        <v>0.00302494978316812</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03769090820951457</v>
+        <v>0.04141542643460201</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -7744,19 +7744,19 @@
         <v>1469</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4973</v>
+        <v>4370</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.008619557660856706</v>
+        <v>0.008619557660856704</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002026378343559436</v>
+        <v>0.002020770506775859</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02917573576267071</v>
+        <v>0.02563992940500003</v>
       </c>
     </row>
     <row r="13">
@@ -7773,19 +7773,19 @@
         <v>4609</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1910</v>
+        <v>1933</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8883</v>
+        <v>9321</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04098315571230952</v>
+        <v>0.04098315571230951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01698523596819472</v>
+        <v>0.0171867963738237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07897982571109985</v>
+        <v>0.08287809625981188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7794,19 +7794,19 @@
         <v>1947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>393</v>
+        <v>520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5444</v>
+        <v>5438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03358512097671778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006771351652878069</v>
+        <v>0.008965581935805825</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09390295011409593</v>
+        <v>0.09381380646812815</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7815,19 +7815,19 @@
         <v>6556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3277</v>
+        <v>3647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11731</v>
+        <v>12166</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03846694402755357</v>
+        <v>0.03846694402755356</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01922578148263432</v>
+        <v>0.02139909903764958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06882464749587656</v>
+        <v>0.07137910040119785</v>
       </c>
     </row>
     <row r="14">
@@ -7844,19 +7844,19 @@
         <v>106392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102184</v>
+        <v>101370</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109656</v>
+        <v>109461</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9459545545823033</v>
+        <v>0.9459545545823034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9085389759890921</v>
+        <v>0.9013033662986715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9749752855256555</v>
+        <v>0.9732366249838128</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -7865,19 +7865,19 @@
         <v>56023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52526</v>
+        <v>52532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57577</v>
+        <v>57450</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9664148790232824</v>
+        <v>0.9664148790232822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9060970498859016</v>
+        <v>0.9061861935318718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9932286483471219</v>
+        <v>0.9910344180641941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>256</v>
@@ -7886,19 +7886,19 @@
         <v>162416</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>156929</v>
+        <v>156981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>166131</v>
+        <v>165946</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.95291349831159</v>
+        <v>0.9529134983115898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9207261281242658</v>
+        <v>0.9210285916607016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9747125961891402</v>
+        <v>0.9736279605039084</v>
       </c>
     </row>
     <row r="15">
@@ -7990,19 +7990,19 @@
         <v>2323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7729</v>
+        <v>7994</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.008934956408516034</v>
+        <v>0.008934956408516036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001332589337450116</v>
+        <v>0.00133730601817153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02972607316217067</v>
+        <v>0.0307450764177306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8011,19 +8011,19 @@
         <v>1150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3092</v>
+        <v>3198</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008788208122635822</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002387517577654582</v>
+        <v>0.002340207771235571</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02362379835165791</v>
+        <v>0.02443089455584515</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -8032,19 +8032,19 @@
         <v>3473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1283</v>
+        <v>1384</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8330</v>
+        <v>9298</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008885820818542254</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003282740844704003</v>
+        <v>0.003541060444990487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02130974229298922</v>
+        <v>0.02378756352032954</v>
       </c>
     </row>
     <row r="17">
@@ -8061,19 +8061,19 @@
         <v>10422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6302</v>
+        <v>6441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16625</v>
+        <v>17137</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04008388461144794</v>
+        <v>0.04008388461144795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0242369555139373</v>
+        <v>0.02477209899116679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06393977425051788</v>
+        <v>0.06591151028194484</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -8082,19 +8082,19 @@
         <v>5592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2802</v>
+        <v>2896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9709</v>
+        <v>9768</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04272777887330148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02140721076992651</v>
+        <v>0.02212509324496085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07418045966578338</v>
+        <v>0.07462967756252659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -8103,19 +8103,19 @@
         <v>16014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10715</v>
+        <v>10994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22557</v>
+        <v>22865</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04096913723027926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02741224807002851</v>
+        <v>0.02812569951180064</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.057707197382378</v>
+        <v>0.05849571353221841</v>
       </c>
     </row>
     <row r="18">
@@ -8132,19 +8132,19 @@
         <v>247261</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>239739</v>
+        <v>239961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>251827</v>
+        <v>251907</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9509811589800361</v>
+        <v>0.9509811589800362</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.922052947367912</v>
+        <v>0.9229050025927369</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9685426768077791</v>
+        <v>0.9688504264079987</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>245</v>
@@ -8153,19 +8153,19 @@
         <v>124138</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>119789</v>
+        <v>119754</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>127068</v>
+        <v>127135</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9484840130040627</v>
+        <v>0.9484840130040626</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9152615009629599</v>
+        <v>0.9149915620817987</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.970875793519104</v>
+        <v>0.9713830539059329</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>596</v>
@@ -8174,19 +8174,19 @@
         <v>371398</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>363981</v>
+        <v>362714</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>377536</v>
+        <v>376763</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9501450419511784</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9311701646965594</v>
+        <v>0.9279272791374019</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9658466912607172</v>
+        <v>0.9638697186290778</v>
       </c>
     </row>
     <row r="19">
@@ -8281,16 +8281,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2783</v>
+        <v>3070</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.008243951957665564</v>
+        <v>0.008243951957665566</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02761549561342242</v>
+        <v>0.03046170593601468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -8299,19 +8299,19 @@
         <v>5894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3360</v>
+        <v>3231</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10505</v>
+        <v>11056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02676142546164302</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01525509968524501</v>
+        <v>0.01466887853039117</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04769916594862188</v>
+        <v>0.05020006248802585</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -8320,19 +8320,19 @@
         <v>6725</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3669</v>
+        <v>3596</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11498</v>
+        <v>11454</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02094764996109998</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01142730049574466</v>
+        <v>0.01120219567026849</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03581493184740458</v>
+        <v>0.03567857220447224</v>
       </c>
     </row>
     <row r="21">
@@ -8349,19 +8349,19 @@
         <v>3850</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1475</v>
+        <v>1543</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8078</v>
+        <v>7993</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03820075141599678</v>
+        <v>0.0382007514159968</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01463157141888874</v>
+        <v>0.01530720622429615</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08014625564929156</v>
+        <v>0.0792993336530769</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -8370,19 +8370,19 @@
         <v>17699</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12981</v>
+        <v>12838</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23298</v>
+        <v>24002</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08035886803019998</v>
+        <v>0.0803588680302</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05893976932258302</v>
+        <v>0.05828824726172152</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.105781513989299</v>
+        <v>0.1089785200269495</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>48</v>
@@ -8391,19 +8391,19 @@
         <v>21549</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15967</v>
+        <v>16510</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28469</v>
+        <v>28543</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06712283853254497</v>
+        <v>0.06712283853254496</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04973544195994493</v>
+        <v>0.05142836116648029</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08867850726469434</v>
+        <v>0.08890947403702443</v>
       </c>
     </row>
     <row r="22">
@@ -8420,19 +8420,19 @@
         <v>96112</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91684</v>
+        <v>92281</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98556</v>
+        <v>98600</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9535552966263375</v>
+        <v>0.9535552966263378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9096307137096706</v>
+        <v>0.9155495334388729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9778097131146694</v>
+        <v>0.9782446311112277</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>391</v>
@@ -8441,19 +8441,19 @@
         <v>196651</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>189626</v>
+        <v>189611</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>201894</v>
+        <v>202377</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.892879706508157</v>
+        <v>0.8928797065081568</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8609836884248777</v>
+        <v>0.8609112221548848</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9166832879911279</v>
+        <v>0.9188764697381107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>530</v>
@@ -8462,19 +8462,19 @@
         <v>292763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>285051</v>
+        <v>285346</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>299347</v>
+        <v>299345</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.911929511506355</v>
+        <v>0.9119295115063548</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8879061185783377</v>
+        <v>0.8888251214330083</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9324373517979573</v>
+        <v>0.9324303739508485</v>
       </c>
     </row>
     <row r="23">
@@ -8579,19 +8579,19 @@
         <v>9027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5136</v>
+        <v>4950</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14927</v>
+        <v>15000</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02610460279044427</v>
+        <v>0.02610460279044428</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01485338776202596</v>
+        <v>0.01431532531156222</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04316735757237928</v>
+        <v>0.04337971220767552</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -8600,19 +8600,19 @@
         <v>9027</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5112</v>
+        <v>5072</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15111</v>
+        <v>15124</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02585959329997296</v>
+        <v>0.02585959329997297</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01464626268527687</v>
+        <v>0.01452968318375451</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04329048356567253</v>
+        <v>0.04332871908590911</v>
       </c>
     </row>
     <row r="25">
@@ -8642,19 +8642,19 @@
         <v>32211</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23766</v>
+        <v>24463</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40881</v>
+        <v>41599</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09315448827385163</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06873236058818807</v>
+        <v>0.07074750400694597</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1182263329471957</v>
+        <v>0.1203044789348654</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -8663,19 +8663,19 @@
         <v>32211</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23624</v>
+        <v>24008</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41074</v>
+        <v>41405</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09228016990592586</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06767962004990219</v>
+        <v>0.06878029893202468</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1176715201905533</v>
+        <v>0.118618710134206</v>
       </c>
     </row>
     <row r="26">
@@ -8705,19 +8705,19 @@
         <v>304545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>295583</v>
+        <v>293087</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>314616</v>
+        <v>312430</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.880740908935704</v>
+        <v>0.8807409089357041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8548220782830622</v>
+        <v>0.8476033575788318</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9098667439103519</v>
+        <v>0.9035424899837894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>572</v>
@@ -8726,19 +8726,19 @@
         <v>307821</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>298451</v>
+        <v>298250</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>317262</v>
+        <v>317193</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8818602367941012</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8550149766473002</v>
+        <v>0.8544412577041298</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9089055530336669</v>
+        <v>0.9087097797961234</v>
       </c>
     </row>
     <row r="27">
@@ -8830,19 +8830,19 @@
         <v>4623</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2113</v>
+        <v>1959</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10111</v>
+        <v>9615</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.006588928855925721</v>
+        <v>0.006588928855925722</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003010975895456701</v>
+        <v>0.002791577578421126</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01441028648677034</v>
+        <v>0.01370313309225831</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>33</v>
@@ -8851,19 +8851,19 @@
         <v>17707</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12242</v>
+        <v>12244</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25057</v>
+        <v>24721</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02001165406354071</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01383598994975024</v>
+        <v>0.01383792178615219</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02831914594603078</v>
+        <v>0.02793882796937186</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>41</v>
@@ -8872,19 +8872,19 @@
         <v>22330</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16156</v>
+        <v>15672</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30859</v>
+        <v>30799</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0140751127997774</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01018366047354185</v>
+        <v>0.009878452554201708</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01945126413421833</v>
+        <v>0.01941359119406166</v>
       </c>
     </row>
     <row r="29">
@@ -8901,19 +8901,19 @@
         <v>20315</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13818</v>
+        <v>13802</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28406</v>
+        <v>27860</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02895227151298137</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01969367392930974</v>
+        <v>0.01967098739702433</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04048450290842583</v>
+        <v>0.03970520226023031</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>112</v>
@@ -8922,19 +8922,19 @@
         <v>58496</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>47781</v>
+        <v>48250</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>71200</v>
+        <v>71441</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0661106193510006</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05400110161471944</v>
+        <v>0.05453088113648947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08046847982164602</v>
+        <v>0.08074118415532749</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>146</v>
@@ -8943,19 +8943,19 @@
         <v>78811</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>66666</v>
+        <v>67852</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>93247</v>
+        <v>92748</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04967639591114914</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04202126138263482</v>
+        <v>0.04276866156122579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05877616366193731</v>
+        <v>0.05846135254871835</v>
       </c>
     </row>
     <row r="30">
@@ -8972,19 +8972,19 @@
         <v>676725</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>667698</v>
+        <v>667863</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>683997</v>
+        <v>683664</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9644587996310932</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9515940475791812</v>
+        <v>0.9518293817775876</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9748227744640409</v>
+        <v>0.9743483785887102</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1529</v>
@@ -8993,19 +8993,19 @@
         <v>808618</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>795107</v>
+        <v>794136</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>820477</v>
+        <v>819848</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9138777265854586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8986076975185808</v>
+        <v>0.8975101886559792</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9272797512929392</v>
+        <v>0.9265695844319006</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2494</v>
@@ -9014,19 +9014,19 @@
         <v>1485343</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1469813</v>
+        <v>1468718</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1498393</v>
+        <v>1498801</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9362484912890735</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9264596218400112</v>
+        <v>0.9257690362615214</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9444739977134015</v>
+        <v>0.944731505320583</v>
       </c>
     </row>
     <row r="31">
